--- a/reporte_estadistico/data/energia/metrics_data_pfac.xlsx
+++ b/reporte_estadistico/data/energia/metrics_data_pfac.xlsx
@@ -1,21 +1,94 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\JJ\repos\research_eslatina\reporte_estadistico\data\energia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="236" yWindow="13" windowWidth="16089" windowHeight="9661"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>quant0</t>
+  </si>
+  <si>
+    <t>quant25</t>
+  </si>
+  <si>
+    <t>quant50</t>
+  </si>
+  <si>
+    <t>quant75</t>
+  </si>
+  <si>
+    <t>quant100</t>
+  </si>
+  <si>
+    <t>skewness</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>variance</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Estrato1_pfac</t>
+  </si>
+  <si>
+    <t>Estrato2_pfac</t>
+  </si>
+  <si>
+    <t>Estrato3_pfac</t>
+  </si>
+  <si>
+    <t>Estrato4_pfac</t>
+  </si>
+  <si>
+    <t>Estrato5_pfac</t>
+  </si>
+  <si>
+    <t>Estrato6_pfac</t>
+  </si>
+  <si>
+    <t>totResidencial_pfac</t>
+  </si>
+  <si>
+    <t>totNoResidencial_pfac</t>
+  </si>
+  <si>
+    <t>cv</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +136,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +190,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +222,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,89 +433,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>quant0</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>quant25</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>quant50</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>quant75</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>quant100</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>skewness</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>median</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>std_dev</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>variance</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Estrato1_pfac</t>
-        </is>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
       </c>
       <c r="B2">
         <v>-10.565795</v>
       </c>
       <c r="C2">
-        <v>34.87707500000001</v>
+        <v>34.877075000000012</v>
       </c>
       <c r="D2">
-        <v>48.91780833333333</v>
+        <v>48.917808333333333</v>
       </c>
       <c r="E2">
         <v>74.49370681818182</v>
@@ -444,44 +506,46 @@
         <v>1.319204161963808</v>
       </c>
       <c r="H2">
-        <v>4.622212000199196</v>
+        <v>4.6222120001991964</v>
       </c>
       <c r="I2">
-        <v>48.91780833333333</v>
+        <v>48.917808333333333</v>
       </c>
       <c r="J2">
         <v>24151.36807544934</v>
       </c>
       <c r="K2">
-        <v>583288579.9158337</v>
+        <v>583288579.91583371</v>
       </c>
       <c r="L2">
         <v>1539.874647701884</v>
       </c>
+      <c r="M2">
+        <f>J2/L2</f>
+        <v>15.683983181029022</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Estrato2_pfac</t>
-        </is>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
       </c>
       <c r="B3">
-        <v>13.80008083333333</v>
+        <v>13.800080833333331</v>
       </c>
       <c r="C3">
-        <v>40.75980666666666</v>
+        <v>40.759806666666663</v>
       </c>
       <c r="D3">
         <v>59.05705583333333</v>
       </c>
       <c r="E3">
-        <v>91.98097583333333</v>
+        <v>91.980975833333332</v>
       </c>
       <c r="F3">
         <v>194082.9315255</v>
       </c>
       <c r="G3">
-        <v>0.6913997529945994</v>
+        <v>0.69139975299459944</v>
       </c>
       <c r="H3">
         <v>2.446330512725809</v>
@@ -490,84 +554,88 @@
         <v>59.05705583333333</v>
       </c>
       <c r="J3">
-        <v>9326.013530394108</v>
+        <v>9326.0135303941079</v>
       </c>
       <c r="K3">
-        <v>86974528.36909398</v>
+        <v>86974528.369093984</v>
       </c>
       <c r="L3">
-        <v>929.5935465505314</v>
+        <v>929.59354655053141</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M9" si="0">J3/L3</f>
+        <v>10.032356146404421</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Estrato3_pfac</t>
-        </is>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>52.17501833333333</v>
+        <v>52.175018333333327</v>
       </c>
       <c r="D4">
-        <v>71.05915416666666</v>
+        <v>71.059154166666659</v>
       </c>
       <c r="E4">
-        <v>107.78472</v>
+        <v>107.78471999999999</v>
       </c>
       <c r="F4">
         <v>141335.8641487929</v>
       </c>
       <c r="G4">
-        <v>0.719316057913219</v>
+        <v>0.71931605791321895</v>
       </c>
       <c r="H4">
         <v>2.584986967512342</v>
       </c>
       <c r="I4">
-        <v>71.05915416666666</v>
+        <v>71.059154166666659</v>
       </c>
       <c r="J4">
-        <v>4799.251309555175</v>
+        <v>4799.2513095551749</v>
       </c>
       <c r="K4">
-        <v>23032813.13226706</v>
+        <v>23032813.132267062</v>
       </c>
       <c r="L4">
-        <v>339.545596330356</v>
+        <v>339.54559633035598</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>14.134335304074487</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Estrato4_pfac</t>
-        </is>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>-19.310625</v>
+        <v>-19.310625000000002</v>
       </c>
       <c r="C5">
-        <v>56.67667863636363</v>
+        <v>56.676678636363633</v>
       </c>
       <c r="D5">
-        <v>88.83914458333334</v>
+        <v>88.839144583333336</v>
       </c>
       <c r="E5">
-        <v>155.955933939394</v>
+        <v>155.95593393939399</v>
       </c>
       <c r="F5">
         <v>29337.37938416667</v>
       </c>
       <c r="G5">
-        <v>0.8035795260058591</v>
+        <v>0.80357952600585913</v>
       </c>
       <c r="H5">
-        <v>2.694827862636059</v>
+        <v>2.6948278626360591</v>
       </c>
       <c r="I5">
-        <v>88.83914458333334</v>
+        <v>88.839144583333336</v>
       </c>
       <c r="J5">
         <v>1209.288130731208</v>
@@ -578,12 +646,14 @@
       <c r="L5">
         <v>193.0528960541123</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>6.264024811066534</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Estrato5_pfac</t>
-        </is>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>-132.7572222222222</v>
@@ -595,7 +665,7 @@
         <v>144.6736363636364</v>
       </c>
       <c r="E6">
-        <v>248.9074659090909</v>
+        <v>248.90746590909089</v>
       </c>
       <c r="F6">
         <v>12288.805165</v>
@@ -604,13 +674,13 @@
         <v>1.227981287107343</v>
       </c>
       <c r="H6">
-        <v>4.237459110876372</v>
+        <v>4.2374591108763724</v>
       </c>
       <c r="I6">
         <v>144.6736363636364</v>
       </c>
       <c r="J6">
-        <v>1115.625872647685</v>
+        <v>1115.6258726476849</v>
       </c>
       <c r="K6">
         <v>1244621.087720908</v>
@@ -618,125 +688,135 @@
       <c r="L6">
         <v>412.217544606834</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>2.7064007518451203</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Estrato6_pfac</t>
-        </is>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>79.527</v>
+        <v>79.527000000000001</v>
       </c>
       <c r="D7">
-        <v>179.6584291666667</v>
+        <v>179.65842916666671</v>
       </c>
       <c r="E7">
-        <v>275.0804625</v>
+        <v>275.08046250000001</v>
       </c>
       <c r="F7">
-        <v>5961.483737777778</v>
+        <v>5961.4837377777776</v>
       </c>
       <c r="G7">
-        <v>0.4705195265467405</v>
+        <v>0.47051952654674051</v>
       </c>
       <c r="H7">
-        <v>2.605950998397483</v>
+        <v>2.6059509983974829</v>
       </c>
       <c r="I7">
-        <v>179.6584291666667</v>
+        <v>179.65842916666671</v>
       </c>
       <c r="J7">
-        <v>514.2572411128726</v>
+        <v>514.25724111287263</v>
       </c>
       <c r="K7">
-        <v>264460.5100370232</v>
+        <v>264460.51003702322</v>
       </c>
       <c r="L7">
-        <v>273.955590561524</v>
+        <v>273.95559056152399</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>1.8771554910005843</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>totResidencial_pfac</t>
-        </is>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>-6.157200000000002</v>
+        <v>-6.1572000000000022</v>
       </c>
       <c r="C8">
-        <v>38.507248125</v>
+        <v>38.507248124999997</v>
       </c>
       <c r="D8">
-        <v>56.14802708333333</v>
+        <v>56.148027083333332</v>
       </c>
       <c r="E8">
-        <v>95.49557772727273</v>
+        <v>95.495577727272732</v>
       </c>
       <c r="F8">
-        <v>228526.817447563</v>
+        <v>228526.81744756299</v>
       </c>
       <c r="G8">
-        <v>2.19490084172684</v>
+        <v>2.1949008417268399</v>
       </c>
       <c r="H8">
-        <v>8.276944845006357</v>
+        <v>8.2769448450063567</v>
       </c>
       <c r="I8">
-        <v>56.14802708333333</v>
+        <v>56.148027083333332</v>
       </c>
       <c r="J8">
-        <v>14214.09382295619</v>
+        <v>14214.093822956191</v>
       </c>
       <c r="K8">
-        <v>202040463.2078013</v>
+        <v>202040463.20780131</v>
       </c>
       <c r="L8">
-        <v>1903.325821507903</v>
+        <v>1903.3258215079029</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>7.4680297310815273</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>totNoResidencial_pfac</t>
-        </is>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>16.25701818181818</v>
+        <v>16.257018181818179</v>
       </c>
       <c r="C9">
-        <v>193.0555163888889</v>
+        <v>193.05551638888889</v>
       </c>
       <c r="D9">
-        <v>307.948535</v>
+        <v>307.94853499999999</v>
       </c>
       <c r="E9">
-        <v>582.1418612499999</v>
+        <v>582.14186124999992</v>
       </c>
       <c r="F9">
-        <v>224386.5577157639</v>
+        <v>224386.55771576389</v>
       </c>
       <c r="G9">
-        <v>1.686874914759814</v>
+        <v>1.6868749147598141</v>
       </c>
       <c r="H9">
-        <v>5.576495188043441</v>
+        <v>5.5764951880434408</v>
       </c>
       <c r="I9">
-        <v>307.948535</v>
+        <v>307.94853499999999</v>
       </c>
       <c r="J9">
-        <v>10864.02155173837</v>
+        <v>10864.021551738369</v>
       </c>
       <c r="K9">
-        <v>118026964.2766357</v>
+        <v>118026964.27663571</v>
       </c>
       <c r="L9">
-        <v>1375.074163167218</v>
+        <v>1375.0741631672181</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>7.900680445275178</v>
       </c>
     </row>
   </sheetData>
